--- a/back/public/reportes/reporte_producto.xlsx
+++ b/back/public/reportes/reporte_producto.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>CODIGO</t>
   </si>
@@ -61,94 +61,103 @@
     <t>Kilos</t>
   </si>
   <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>Polen</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>Propoleo</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Miel Abeja</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>Cera</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Miel Natural 400 GR</t>
+  </si>
+  <si>
+    <t>Pieza</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Miel con Propoleo 300 GR</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Miel Flor Jamaica 400 GR</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Miel Jengibre 200 GR</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Miel Polen 200 GR</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Miel con Quinua 100 GR</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>Super Energetico 200 GR</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Miel con Maca 200 GR</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>Miel con Chocolate 50 GR</t>
+  </si>
+  <si>
+    <t>Miel Cremosa 100 GR</t>
+  </si>
+  <si>
+    <t>miel de abeja</t>
+  </si>
+  <si>
+    <t>kiloS</t>
+  </si>
+  <si>
     <t>0002</t>
   </si>
   <si>
-    <t>Cera</t>
-  </si>
-  <si>
-    <t>0003</t>
-  </si>
-  <si>
-    <t>Polen</t>
-  </si>
-  <si>
-    <t>0004</t>
-  </si>
-  <si>
-    <t>Propoleo</t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>Miel Abeja</t>
-  </si>
-  <si>
-    <t>002</t>
-  </si>
-  <si>
-    <t>003</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Miel Natural 400 GR</t>
-  </si>
-  <si>
-    <t>Pieza</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Miel con Propoleo 300 GR</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Miel Flor Jamaica 400 GR</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>Miel Jengibre 200 GR</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>Miel Polen 200 GR</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Miel con Quinua 100 GR</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>Super Energetico 200 GR</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>Miel con Maca 200 GR</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>Miel con Chocolate 50 GR</t>
-  </si>
-  <si>
-    <t>Miel Cremosa 100 GR</t>
+    <t>Cera3</t>
   </si>
   <si>
     <t>ENTREGADO POR:</t>
@@ -1158,11 +1167,11 @@
         <v>23</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="E13" s="19"/>
       <c r="F13" s="11" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G13" s="9">
         <v>0.0</v>
@@ -1179,14 +1188,14 @@
     <row r="14" spans="1:11" customHeight="1" ht="27.95">
       <c r="B14" s="9"/>
       <c r="C14" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E14" s="19"/>
       <c r="F14" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" s="9">
         <v>0.0</v>
@@ -1203,14 +1212,14 @@
     <row r="15" spans="1:11" customHeight="1" ht="27.95">
       <c r="B15" s="9"/>
       <c r="C15" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E15" s="19"/>
       <c r="F15" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G15" s="9">
         <v>0.0</v>
@@ -1227,14 +1236,14 @@
     <row r="16" spans="1:11" customHeight="1" ht="27.95">
       <c r="B16" s="9"/>
       <c r="C16" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E16" s="19"/>
       <c r="F16" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G16" s="9">
         <v>0.0</v>
@@ -1251,14 +1260,14 @@
     <row r="17" spans="1:11" customHeight="1" ht="27.95">
       <c r="B17" s="9"/>
       <c r="C17" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E17" s="19"/>
       <c r="F17" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G17" s="9">
         <v>0.0</v>
@@ -1275,14 +1284,14 @@
     <row r="18" spans="1:11" customHeight="1" ht="27.95">
       <c r="B18" s="9"/>
       <c r="C18" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18" s="19"/>
       <c r="F18" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18" s="9">
         <v>0.0</v>
@@ -1299,14 +1308,14 @@
     <row r="19" spans="1:11" customHeight="1" ht="27.95">
       <c r="B19" s="9"/>
       <c r="C19" s="10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E19" s="19"/>
       <c r="F19" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G19" s="9">
         <v>0.0</v>
@@ -1323,14 +1332,14 @@
     <row r="20" spans="1:11" customHeight="1" ht="27.95">
       <c r="B20" s="9"/>
       <c r="C20" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" s="19"/>
       <c r="F20" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" s="9">
         <v>0.0</v>
@@ -1347,14 +1356,14 @@
     <row r="21" spans="1:11" customHeight="1" ht="27.95">
       <c r="B21" s="9"/>
       <c r="C21" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E21" s="19"/>
       <c r="F21" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G21" s="9">
         <v>0.0</v>
@@ -1370,15 +1379,15 @@
     </row>
     <row r="22" spans="1:11" customHeight="1" ht="27.95">
       <c r="B22" s="9"/>
-      <c r="C22" s="10" t="s">
-        <v>41</v>
+      <c r="C22" s="10">
+        <v>10</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>42</v>
       </c>
       <c r="E22" s="19"/>
       <c r="F22" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G22" s="9">
         <v>0.0</v>
@@ -1394,18 +1403,18 @@
     </row>
     <row r="23" spans="1:11" customHeight="1" ht="27.95">
       <c r="B23" s="9"/>
-      <c r="C23" s="10">
-        <v>10</v>
+      <c r="C23" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>43</v>
       </c>
       <c r="E23" s="19"/>
       <c r="F23" s="11" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G23" s="9">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="H23" s="12">
         <v>0.0</v>
@@ -1418,13 +1427,25 @@
     </row>
     <row r="24" spans="1:11" customHeight="1" ht="27.95">
       <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="7"/>
+      <c r="C24" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>46</v>
+      </c>
       <c r="E24" s="19"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="13"/>
+      <c r="F24" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="H24" s="12">
+        <v>0.0</v>
+      </c>
+      <c r="I24" s="13">
+        <v>0.0</v>
+      </c>
       <c r="J24" s="14"/>
       <c r="K24" s="8"/>
     </row>
@@ -1602,7 +1623,7 @@
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
       <c r="D40" s="35" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E40" s="35"/>
       <c r="F40" s="36"/>
